--- a/src/main/java/com/Lumen/YourStore/Testdata/testData.xlsx
+++ b/src/main/java/com/Lumen/YourStore/Testdata/testData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultron\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8440A1EF-BD8B-400C-9C8E-4B306795A49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1C287634-56A7-4172-AC9A-5DEF6A939BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7F2B21BF-EEC5-409A-95D5-AD21D0BCA7F7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20760" windowHeight="11820" xr2:uid="{7F2B21BF-EEC5-409A-95D5-AD21D0BCA7F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +35,13 @@
     <t>password</t>
   </si>
   <si>
-    <t>gowda.sushanthgowda95@gmail.com</t>
-  </si>
-  <si>
     <t>shxkjxbaku@gmail.com</t>
   </si>
   <si>
     <t>hvtftc@gmail.com</t>
+  </si>
+  <si>
+    <t>gowda.sushanthgowda5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -430,7 +426,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +443,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>987654321</v>
@@ -457,7 +453,7 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2215454758</v>
@@ -465,7 +461,7 @@
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>525611658</v>
